--- a/CAVA.xlsx
+++ b/CAVA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A112B37D-CEB8-48A2-AEC3-2B971B17BE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99506029-ACC3-43E4-B85B-593BA6752414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{F6A01A45-DE5A-407F-9619-DCA463D90105}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{F6A01A45-DE5A-407F-9619-DCA463D90105}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>Cava Group</t>
   </si>
@@ -144,18 +144,6 @@
     <t>EPS</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>Resturant Revenue</t>
   </si>
   <si>
@@ -193,9 +181,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00;\(#,##0.00\)"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,14 +192,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -225,6 +211,20 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -246,22 +246,23 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -600,33 +601,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7CF837F-F9CB-4436-9E79-75C78AF867F2}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>90.6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I3" s="3">
@@ -636,8 +638,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I4" s="3">
@@ -645,8 +647,8 @@
         <v>10478.7931914</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H5" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="3">
@@ -656,8 +658,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="3">
@@ -667,8 +669,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="3">
@@ -685,25 +687,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB15FAA-E633-4EB2-88CF-80DF1D807AE2}">
   <dimension ref="A1:BH541"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
@@ -729,17 +732,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>43</v>
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>39</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="6">
         <v>323</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="2">
+      <c r="G3" s="6">
         <v>382</v>
       </c>
       <c r="H3" s="3"/>
@@ -796,9 +799,9 @@
       <c r="BG3" s="3"/>
       <c r="BH3" s="3"/>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>41</v>
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C4" s="3">
         <v>2.6080000000000001</v>
@@ -863,7 +866,7 @@
       <c r="BG4" s="3"/>
       <c r="BH4" s="3"/>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -923,9 +926,9 @@
       <c r="BG5" s="3"/>
       <c r="BH5" s="3"/>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>39</v>
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C6" s="3">
         <v>256.29000000000002</v>
@@ -990,9 +993,9 @@
       <c r="BG6" s="3"/>
       <c r="BH6" s="3"/>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>40</v>
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C7" s="3">
         <v>2.7160000000000002</v>
@@ -1057,17 +1060,17 @@
       <c r="BG7" s="3"/>
       <c r="BH7" s="3"/>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="7">
         <v>259.00599999999997</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7">
         <v>331.82600000000002</v>
       </c>
       <c r="H8" s="3"/>
@@ -1124,8 +1127,8 @@
       <c r="BG8" s="3"/>
       <c r="BH8" s="3"/>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="3">
@@ -1191,8 +1194,8 @@
       <c r="BG9" s="3"/>
       <c r="BH9" s="3"/>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="3">
@@ -1258,8 +1261,8 @@
       <c r="BG10" s="3"/>
       <c r="BH10" s="3"/>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="3">
@@ -1325,8 +1328,8 @@
       <c r="BG11" s="3"/>
       <c r="BH11" s="3"/>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="3">
@@ -1392,8 +1395,8 @@
       <c r="BG12" s="3"/>
       <c r="BH12" s="3"/>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="3">
@@ -1470,8 +1473,8 @@
       <c r="BG13" s="3"/>
       <c r="BH13" s="3"/>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="3">
@@ -1537,8 +1540,8 @@
       <c r="BG14" s="3"/>
       <c r="BH14" s="3"/>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="3">
@@ -1604,8 +1607,8 @@
       <c r="BG15" s="3"/>
       <c r="BH15" s="3"/>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="3">
@@ -1671,8 +1674,8 @@
       <c r="BG16" s="3"/>
       <c r="BH16" s="3"/>
     </row>
-    <row r="17" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="3">
@@ -1738,8 +1741,8 @@
       <c r="BG17" s="3"/>
       <c r="BH17" s="3"/>
     </row>
-    <row r="18" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="3">
@@ -1805,8 +1808,8 @@
       <c r="BG18" s="3"/>
       <c r="BH18" s="3"/>
     </row>
-    <row r="19" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="3">
@@ -1883,8 +1886,8 @@
       <c r="BG19" s="3"/>
       <c r="BH19" s="3"/>
     </row>
-    <row r="20" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="3">
@@ -1950,8 +1953,8 @@
       <c r="BG20" s="3"/>
       <c r="BH20" s="3"/>
     </row>
-    <row r="21" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="3">
@@ -2017,8 +2020,8 @@
       <c r="BG21" s="3"/>
       <c r="BH21" s="3"/>
     </row>
-    <row r="22" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="3">
@@ -2095,8 +2098,8 @@
       <c r="BG22" s="3"/>
       <c r="BH22" s="3"/>
     </row>
-    <row r="23" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="3">
@@ -2162,8 +2165,8 @@
       <c r="BG23" s="3"/>
       <c r="BH23" s="3"/>
     </row>
-    <row r="24" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C24" s="3">
@@ -2240,7 +2243,7 @@
       <c r="BG24" s="3"/>
       <c r="BH24" s="3"/>
     </row>
-    <row r="25" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -2300,27 +2303,27 @@
       <c r="BG25" s="3"/>
       <c r="BH25" s="3"/>
     </row>
-    <row r="26" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="8">
         <f>+C24/C27</f>
         <v>0.1227757694872421</v>
       </c>
-      <c r="D26" s="7" t="e">
+      <c r="D26" s="8" t="e">
         <f t="shared" ref="D26:G26" si="4">+D24/D27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E26" s="7" t="e">
+      <c r="E26" s="8" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F26" s="7" t="e">
+      <c r="F26" s="8" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="8">
         <f t="shared" si="4"/>
         <v>0.22252326336290865</v>
       </c>
@@ -2378,8 +2381,8 @@
       <c r="BG26" s="3"/>
       <c r="BH26" s="3"/>
     </row>
-    <row r="27" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="3">
@@ -2445,7 +2448,7 @@
       <c r="BG27" s="3"/>
       <c r="BH27" s="3"/>
     </row>
-    <row r="28" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -2505,23 +2508,23 @@
       <c r="BG28" s="3"/>
       <c r="BH28" s="3"/>
     </row>
-    <row r="29" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>42</v>
+    <row r="29" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>38</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="9">
         <v>2.3E-2</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8">
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9">
         <v>0.108</v>
       </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -2572,31 +2575,31 @@
       <c r="BG29" s="3"/>
       <c r="BH29" s="3"/>
     </row>
-    <row r="30" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>44</v>
+    <row r="30" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>40</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8">
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9">
         <f>+G3/C3-1</f>
         <v>0.18266253869969051</v>
       </c>
-      <c r="H30" s="8" t="e">
-        <f t="shared" ref="H30:K30" si="5">+H3/D3-1</f>
+      <c r="H30" s="9" t="e">
+        <f t="shared" ref="H30:J30" si="5">+H3/D3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="8" t="e">
+      <c r="I30" s="9" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J30" s="8" t="e">
+      <c r="J30" s="9" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="8"/>
+      <c r="K30" s="9"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -2647,31 +2650,31 @@
       <c r="BG30" s="3"/>
       <c r="BH30" s="3"/>
     </row>
-    <row r="31" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9">
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10">
         <f>+G8/C8-1</f>
         <v>0.28115178798946761</v>
       </c>
-      <c r="H31" s="9" t="e">
-        <f t="shared" ref="H31:K31" si="6">+H8/D8-1</f>
+      <c r="H31" s="10" t="e">
+        <f t="shared" ref="H31:J31" si="6">+H8/D8-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="9" t="e">
+      <c r="I31" s="10" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J31" s="9" t="e">
+      <c r="J31" s="10" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K31" s="9"/>
+      <c r="K31" s="10"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -2722,31 +2725,31 @@
       <c r="BG31" s="3"/>
       <c r="BH31" s="3"/>
     </row>
-    <row r="32" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>46</v>
+    <row r="32" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>42</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8">
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9">
         <f>+G13/G8</f>
         <v>0.25333457896608469</v>
       </c>
-      <c r="H32" s="8" t="e">
-        <f t="shared" ref="H32:K32" si="7">+H13/H8</f>
+      <c r="H32" s="9" t="e">
+        <f t="shared" ref="H32:J32" si="7">+H13/H8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="8" t="e">
+      <c r="I32" s="9" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J32" s="8" t="e">
+      <c r="J32" s="9" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K32" s="8"/>
+      <c r="K32" s="9"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -2797,31 +2800,31 @@
       <c r="BG32" s="3"/>
       <c r="BH32" s="3"/>
     </row>
-    <row r="33" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>47</v>
+    <row r="33" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>43</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8">
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9">
         <f>+G19/G8</f>
         <v>4.7344089974866409E-2</v>
       </c>
-      <c r="H33" s="8" t="e">
-        <f t="shared" ref="H33:K33" si="8">+H19/H8</f>
+      <c r="H33" s="9" t="e">
+        <f t="shared" ref="H33:J33" si="8">+H19/H8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I33" s="8" t="e">
+      <c r="I33" s="9" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J33" s="8" t="e">
+      <c r="J33" s="9" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K33" s="8"/>
+      <c r="K33" s="9"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
@@ -2872,31 +2875,31 @@
       <c r="BG33" s="3"/>
       <c r="BH33" s="3"/>
     </row>
-    <row r="34" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>48</v>
+    <row r="34" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>44</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8">
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9">
         <f>+G23/G22</f>
         <v>-0.26299498870000948</v>
       </c>
-      <c r="H34" s="8" t="e">
-        <f t="shared" ref="H34:K34" si="9">+H23/H22</f>
+      <c r="H34" s="9" t="e">
+        <f t="shared" ref="H34:J34" si="9">+H23/H22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I34" s="8" t="e">
+      <c r="I34" s="9" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J34" s="8" t="e">
+      <c r="J34" s="9" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K34" s="8"/>
+      <c r="K34" s="9"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
@@ -2947,7 +2950,7 @@
       <c r="BG34" s="3"/>
       <c r="BH34" s="3"/>
     </row>
-    <row r="35" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -3007,7 +3010,7 @@
       <c r="BG35" s="3"/>
       <c r="BH35" s="3"/>
     </row>
-    <row r="36" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -3067,7 +3070,7 @@
       <c r="BG36" s="3"/>
       <c r="BH36" s="3"/>
     </row>
-    <row r="37" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -3127,7 +3130,7 @@
       <c r="BG37" s="3"/>
       <c r="BH37" s="3"/>
     </row>
-    <row r="38" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -3187,7 +3190,7 @@
       <c r="BG38" s="3"/>
       <c r="BH38" s="3"/>
     </row>
-    <row r="39" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -3247,7 +3250,7 @@
       <c r="BG39" s="3"/>
       <c r="BH39" s="3"/>
     </row>
-    <row r="40" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -3307,7 +3310,7 @@
       <c r="BG40" s="3"/>
       <c r="BH40" s="3"/>
     </row>
-    <row r="41" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -3367,7 +3370,7 @@
       <c r="BG41" s="3"/>
       <c r="BH41" s="3"/>
     </row>
-    <row r="42" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -3427,7 +3430,7 @@
       <c r="BG42" s="3"/>
       <c r="BH42" s="3"/>
     </row>
-    <row r="43" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -3487,7 +3490,7 @@
       <c r="BG43" s="3"/>
       <c r="BH43" s="3"/>
     </row>
-    <row r="44" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -3547,7 +3550,7 @@
       <c r="BG44" s="3"/>
       <c r="BH44" s="3"/>
     </row>
-    <row r="45" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -3607,7 +3610,7 @@
       <c r="BG45" s="3"/>
       <c r="BH45" s="3"/>
     </row>
-    <row r="46" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -3667,7 +3670,7 @@
       <c r="BG46" s="3"/>
       <c r="BH46" s="3"/>
     </row>
-    <row r="47" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -3727,7 +3730,7 @@
       <c r="BG47" s="3"/>
       <c r="BH47" s="3"/>
     </row>
-    <row r="48" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -3787,7 +3790,7 @@
       <c r="BG48" s="3"/>
       <c r="BH48" s="3"/>
     </row>
-    <row r="49" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -3847,7 +3850,7 @@
       <c r="BG49" s="3"/>
       <c r="BH49" s="3"/>
     </row>
-    <row r="50" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -3907,7 +3910,7 @@
       <c r="BG50" s="3"/>
       <c r="BH50" s="3"/>
     </row>
-    <row r="51" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -3967,7 +3970,7 @@
       <c r="BG51" s="3"/>
       <c r="BH51" s="3"/>
     </row>
-    <row r="52" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -4027,7 +4030,7 @@
       <c r="BG52" s="3"/>
       <c r="BH52" s="3"/>
     </row>
-    <row r="53" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -4087,7 +4090,7 @@
       <c r="BG53" s="3"/>
       <c r="BH53" s="3"/>
     </row>
-    <row r="54" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -4147,7 +4150,7 @@
       <c r="BG54" s="3"/>
       <c r="BH54" s="3"/>
     </row>
-    <row r="55" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -4207,7 +4210,7 @@
       <c r="BG55" s="3"/>
       <c r="BH55" s="3"/>
     </row>
-    <row r="56" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -4267,7 +4270,7 @@
       <c r="BG56" s="3"/>
       <c r="BH56" s="3"/>
     </row>
-    <row r="57" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -4327,7 +4330,7 @@
       <c r="BG57" s="3"/>
       <c r="BH57" s="3"/>
     </row>
-    <row r="58" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -4387,7 +4390,7 @@
       <c r="BG58" s="3"/>
       <c r="BH58" s="3"/>
     </row>
-    <row r="59" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -4447,7 +4450,7 @@
       <c r="BG59" s="3"/>
       <c r="BH59" s="3"/>
     </row>
-    <row r="60" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -4507,7 +4510,7 @@
       <c r="BG60" s="3"/>
       <c r="BH60" s="3"/>
     </row>
-    <row r="61" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -4567,7 +4570,7 @@
       <c r="BG61" s="3"/>
       <c r="BH61" s="3"/>
     </row>
-    <row r="62" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -4627,7 +4630,7 @@
       <c r="BG62" s="3"/>
       <c r="BH62" s="3"/>
     </row>
-    <row r="63" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -4687,7 +4690,7 @@
       <c r="BG63" s="3"/>
       <c r="BH63" s="3"/>
     </row>
-    <row r="64" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -4747,7 +4750,7 @@
       <c r="BG64" s="3"/>
       <c r="BH64" s="3"/>
     </row>
-    <row r="65" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -4807,7 +4810,7 @@
       <c r="BG65" s="3"/>
       <c r="BH65" s="3"/>
     </row>
-    <row r="66" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -4867,7 +4870,7 @@
       <c r="BG66" s="3"/>
       <c r="BH66" s="3"/>
     </row>
-    <row r="67" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -4927,7 +4930,7 @@
       <c r="BG67" s="3"/>
       <c r="BH67" s="3"/>
     </row>
-    <row r="68" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -4987,7 +4990,7 @@
       <c r="BG68" s="3"/>
       <c r="BH68" s="3"/>
     </row>
-    <row r="69" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -5047,7 +5050,7 @@
       <c r="BG69" s="3"/>
       <c r="BH69" s="3"/>
     </row>
-    <row r="70" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -5107,7 +5110,7 @@
       <c r="BG70" s="3"/>
       <c r="BH70" s="3"/>
     </row>
-    <row r="71" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -5167,7 +5170,7 @@
       <c r="BG71" s="3"/>
       <c r="BH71" s="3"/>
     </row>
-    <row r="72" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -5227,7 +5230,7 @@
       <c r="BG72" s="3"/>
       <c r="BH72" s="3"/>
     </row>
-    <row r="73" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -5287,7 +5290,7 @@
       <c r="BG73" s="3"/>
       <c r="BH73" s="3"/>
     </row>
-    <row r="74" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -5347,7 +5350,7 @@
       <c r="BG74" s="3"/>
       <c r="BH74" s="3"/>
     </row>
-    <row r="75" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -5407,7 +5410,7 @@
       <c r="BG75" s="3"/>
       <c r="BH75" s="3"/>
     </row>
-    <row r="76" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -5467,7 +5470,7 @@
       <c r="BG76" s="3"/>
       <c r="BH76" s="3"/>
     </row>
-    <row r="77" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -5527,7 +5530,7 @@
       <c r="BG77" s="3"/>
       <c r="BH77" s="3"/>
     </row>
-    <row r="78" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -5587,7 +5590,7 @@
       <c r="BG78" s="3"/>
       <c r="BH78" s="3"/>
     </row>
-    <row r="79" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -5647,7 +5650,7 @@
       <c r="BG79" s="3"/>
       <c r="BH79" s="3"/>
     </row>
-    <row r="80" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -5707,7 +5710,7 @@
       <c r="BG80" s="3"/>
       <c r="BH80" s="3"/>
     </row>
-    <row r="81" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -5767,7 +5770,7 @@
       <c r="BG81" s="3"/>
       <c r="BH81" s="3"/>
     </row>
-    <row r="82" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -5827,7 +5830,7 @@
       <c r="BG82" s="3"/>
       <c r="BH82" s="3"/>
     </row>
-    <row r="83" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -5887,7 +5890,7 @@
       <c r="BG83" s="3"/>
       <c r="BH83" s="3"/>
     </row>
-    <row r="84" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -5947,7 +5950,7 @@
       <c r="BG84" s="3"/>
       <c r="BH84" s="3"/>
     </row>
-    <row r="85" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -6007,7 +6010,7 @@
       <c r="BG85" s="3"/>
       <c r="BH85" s="3"/>
     </row>
-    <row r="86" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -6067,7 +6070,7 @@
       <c r="BG86" s="3"/>
       <c r="BH86" s="3"/>
     </row>
-    <row r="87" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -6127,7 +6130,7 @@
       <c r="BG87" s="3"/>
       <c r="BH87" s="3"/>
     </row>
-    <row r="88" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -6187,7 +6190,7 @@
       <c r="BG88" s="3"/>
       <c r="BH88" s="3"/>
     </row>
-    <row r="89" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -6247,7 +6250,7 @@
       <c r="BG89" s="3"/>
       <c r="BH89" s="3"/>
     </row>
-    <row r="90" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -6307,7 +6310,7 @@
       <c r="BG90" s="3"/>
       <c r="BH90" s="3"/>
     </row>
-    <row r="91" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -6367,7 +6370,7 @@
       <c r="BG91" s="3"/>
       <c r="BH91" s="3"/>
     </row>
-    <row r="92" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -6427,7 +6430,7 @@
       <c r="BG92" s="3"/>
       <c r="BH92" s="3"/>
     </row>
-    <row r="93" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -6487,7 +6490,7 @@
       <c r="BG93" s="3"/>
       <c r="BH93" s="3"/>
     </row>
-    <row r="94" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -6547,7 +6550,7 @@
       <c r="BG94" s="3"/>
       <c r="BH94" s="3"/>
     </row>
-    <row r="95" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -6607,7 +6610,7 @@
       <c r="BG95" s="3"/>
       <c r="BH95" s="3"/>
     </row>
-    <row r="96" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -6667,7 +6670,7 @@
       <c r="BG96" s="3"/>
       <c r="BH96" s="3"/>
     </row>
-    <row r="97" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -6727,7 +6730,7 @@
       <c r="BG97" s="3"/>
       <c r="BH97" s="3"/>
     </row>
-    <row r="98" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -6787,7 +6790,7 @@
       <c r="BG98" s="3"/>
       <c r="BH98" s="3"/>
     </row>
-    <row r="99" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -6847,7 +6850,7 @@
       <c r="BG99" s="3"/>
       <c r="BH99" s="3"/>
     </row>
-    <row r="100" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -6907,7 +6910,7 @@
       <c r="BG100" s="3"/>
       <c r="BH100" s="3"/>
     </row>
-    <row r="101" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -6967,7 +6970,7 @@
       <c r="BG101" s="3"/>
       <c r="BH101" s="3"/>
     </row>
-    <row r="102" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -7027,7 +7030,7 @@
       <c r="BG102" s="3"/>
       <c r="BH102" s="3"/>
     </row>
-    <row r="103" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -7087,7 +7090,7 @@
       <c r="BG103" s="3"/>
       <c r="BH103" s="3"/>
     </row>
-    <row r="104" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -7147,7 +7150,7 @@
       <c r="BG104" s="3"/>
       <c r="BH104" s="3"/>
     </row>
-    <row r="105" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -7207,7 +7210,7 @@
       <c r="BG105" s="3"/>
       <c r="BH105" s="3"/>
     </row>
-    <row r="106" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -7267,7 +7270,7 @@
       <c r="BG106" s="3"/>
       <c r="BH106" s="3"/>
     </row>
-    <row r="107" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -7327,7 +7330,7 @@
       <c r="BG107" s="3"/>
       <c r="BH107" s="3"/>
     </row>
-    <row r="108" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -7387,7 +7390,7 @@
       <c r="BG108" s="3"/>
       <c r="BH108" s="3"/>
     </row>
-    <row r="109" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -7447,7 +7450,7 @@
       <c r="BG109" s="3"/>
       <c r="BH109" s="3"/>
     </row>
-    <row r="110" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -7507,7 +7510,7 @@
       <c r="BG110" s="3"/>
       <c r="BH110" s="3"/>
     </row>
-    <row r="111" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -7567,7 +7570,7 @@
       <c r="BG111" s="3"/>
       <c r="BH111" s="3"/>
     </row>
-    <row r="112" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -7627,7 +7630,7 @@
       <c r="BG112" s="3"/>
       <c r="BH112" s="3"/>
     </row>
-    <row r="113" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -7687,7 +7690,7 @@
       <c r="BG113" s="3"/>
       <c r="BH113" s="3"/>
     </row>
-    <row r="114" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -7747,7 +7750,7 @@
       <c r="BG114" s="3"/>
       <c r="BH114" s="3"/>
     </row>
-    <row r="115" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -7807,7 +7810,7 @@
       <c r="BG115" s="3"/>
       <c r="BH115" s="3"/>
     </row>
-    <row r="116" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -7867,7 +7870,7 @@
       <c r="BG116" s="3"/>
       <c r="BH116" s="3"/>
     </row>
-    <row r="117" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -7927,7 +7930,7 @@
       <c r="BG117" s="3"/>
       <c r="BH117" s="3"/>
     </row>
-    <row r="118" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -7987,7 +7990,7 @@
       <c r="BG118" s="3"/>
       <c r="BH118" s="3"/>
     </row>
-    <row r="119" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -8047,7 +8050,7 @@
       <c r="BG119" s="3"/>
       <c r="BH119" s="3"/>
     </row>
-    <row r="120" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -8107,7 +8110,7 @@
       <c r="BG120" s="3"/>
       <c r="BH120" s="3"/>
     </row>
-    <row r="121" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -8167,7 +8170,7 @@
       <c r="BG121" s="3"/>
       <c r="BH121" s="3"/>
     </row>
-    <row r="122" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -8227,7 +8230,7 @@
       <c r="BG122" s="3"/>
       <c r="BH122" s="3"/>
     </row>
-    <row r="123" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -8287,7 +8290,7 @@
       <c r="BG123" s="3"/>
       <c r="BH123" s="3"/>
     </row>
-    <row r="124" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -8347,7 +8350,7 @@
       <c r="BG124" s="3"/>
       <c r="BH124" s="3"/>
     </row>
-    <row r="125" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -8407,7 +8410,7 @@
       <c r="BG125" s="3"/>
       <c r="BH125" s="3"/>
     </row>
-    <row r="126" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -8467,7 +8470,7 @@
       <c r="BG126" s="3"/>
       <c r="BH126" s="3"/>
     </row>
-    <row r="127" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -8527,7 +8530,7 @@
       <c r="BG127" s="3"/>
       <c r="BH127" s="3"/>
     </row>
-    <row r="128" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -8587,7 +8590,7 @@
       <c r="BG128" s="3"/>
       <c r="BH128" s="3"/>
     </row>
-    <row r="129" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -8647,7 +8650,7 @@
       <c r="BG129" s="3"/>
       <c r="BH129" s="3"/>
     </row>
-    <row r="130" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -8707,7 +8710,7 @@
       <c r="BG130" s="3"/>
       <c r="BH130" s="3"/>
     </row>
-    <row r="131" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -8767,7 +8770,7 @@
       <c r="BG131" s="3"/>
       <c r="BH131" s="3"/>
     </row>
-    <row r="132" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -8827,7 +8830,7 @@
       <c r="BG132" s="3"/>
       <c r="BH132" s="3"/>
     </row>
-    <row r="133" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -8887,7 +8890,7 @@
       <c r="BG133" s="3"/>
       <c r="BH133" s="3"/>
     </row>
-    <row r="134" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -8947,7 +8950,7 @@
       <c r="BG134" s="3"/>
       <c r="BH134" s="3"/>
     </row>
-    <row r="135" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -9007,7 +9010,7 @@
       <c r="BG135" s="3"/>
       <c r="BH135" s="3"/>
     </row>
-    <row r="136" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -9067,7 +9070,7 @@
       <c r="BG136" s="3"/>
       <c r="BH136" s="3"/>
     </row>
-    <row r="137" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -9127,7 +9130,7 @@
       <c r="BG137" s="3"/>
       <c r="BH137" s="3"/>
     </row>
-    <row r="138" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -9187,7 +9190,7 @@
       <c r="BG138" s="3"/>
       <c r="BH138" s="3"/>
     </row>
-    <row r="139" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -9247,7 +9250,7 @@
       <c r="BG139" s="3"/>
       <c r="BH139" s="3"/>
     </row>
-    <row r="140" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -9307,7 +9310,7 @@
       <c r="BG140" s="3"/>
       <c r="BH140" s="3"/>
     </row>
-    <row r="141" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -9367,7 +9370,7 @@
       <c r="BG141" s="3"/>
       <c r="BH141" s="3"/>
     </row>
-    <row r="142" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -9427,7 +9430,7 @@
       <c r="BG142" s="3"/>
       <c r="BH142" s="3"/>
     </row>
-    <row r="143" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -9487,7 +9490,7 @@
       <c r="BG143" s="3"/>
       <c r="BH143" s="3"/>
     </row>
-    <row r="144" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -9547,7 +9550,7 @@
       <c r="BG144" s="3"/>
       <c r="BH144" s="3"/>
     </row>
-    <row r="145" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -9607,7 +9610,7 @@
       <c r="BG145" s="3"/>
       <c r="BH145" s="3"/>
     </row>
-    <row r="146" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -9667,7 +9670,7 @@
       <c r="BG146" s="3"/>
       <c r="BH146" s="3"/>
     </row>
-    <row r="147" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -9727,7 +9730,7 @@
       <c r="BG147" s="3"/>
       <c r="BH147" s="3"/>
     </row>
-    <row r="148" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -9787,7 +9790,7 @@
       <c r="BG148" s="3"/>
       <c r="BH148" s="3"/>
     </row>
-    <row r="149" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -9847,7 +9850,7 @@
       <c r="BG149" s="3"/>
       <c r="BH149" s="3"/>
     </row>
-    <row r="150" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -9907,7 +9910,7 @@
       <c r="BG150" s="3"/>
       <c r="BH150" s="3"/>
     </row>
-    <row r="151" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -9967,7 +9970,7 @@
       <c r="BG151" s="3"/>
       <c r="BH151" s="3"/>
     </row>
-    <row r="152" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -10027,7 +10030,7 @@
       <c r="BG152" s="3"/>
       <c r="BH152" s="3"/>
     </row>
-    <row r="153" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -10087,7 +10090,7 @@
       <c r="BG153" s="3"/>
       <c r="BH153" s="3"/>
     </row>
-    <row r="154" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -10147,7 +10150,7 @@
       <c r="BG154" s="3"/>
       <c r="BH154" s="3"/>
     </row>
-    <row r="155" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -10207,7 +10210,7 @@
       <c r="BG155" s="3"/>
       <c r="BH155" s="3"/>
     </row>
-    <row r="156" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -10267,7 +10270,7 @@
       <c r="BG156" s="3"/>
       <c r="BH156" s="3"/>
     </row>
-    <row r="157" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -10327,7 +10330,7 @@
       <c r="BG157" s="3"/>
       <c r="BH157" s="3"/>
     </row>
-    <row r="158" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -10387,7 +10390,7 @@
       <c r="BG158" s="3"/>
       <c r="BH158" s="3"/>
     </row>
-    <row r="159" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -10447,7 +10450,7 @@
       <c r="BG159" s="3"/>
       <c r="BH159" s="3"/>
     </row>
-    <row r="160" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -10507,7 +10510,7 @@
       <c r="BG160" s="3"/>
       <c r="BH160" s="3"/>
     </row>
-    <row r="161" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -10567,7 +10570,7 @@
       <c r="BG161" s="3"/>
       <c r="BH161" s="3"/>
     </row>
-    <row r="162" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -10627,7 +10630,7 @@
       <c r="BG162" s="3"/>
       <c r="BH162" s="3"/>
     </row>
-    <row r="163" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -10687,7 +10690,7 @@
       <c r="BG163" s="3"/>
       <c r="BH163" s="3"/>
     </row>
-    <row r="164" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -10747,7 +10750,7 @@
       <c r="BG164" s="3"/>
       <c r="BH164" s="3"/>
     </row>
-    <row r="165" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -10807,7 +10810,7 @@
       <c r="BG165" s="3"/>
       <c r="BH165" s="3"/>
     </row>
-    <row r="166" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -10867,7 +10870,7 @@
       <c r="BG166" s="3"/>
       <c r="BH166" s="3"/>
     </row>
-    <row r="167" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -10927,7 +10930,7 @@
       <c r="BG167" s="3"/>
       <c r="BH167" s="3"/>
     </row>
-    <row r="168" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -10987,7 +10990,7 @@
       <c r="BG168" s="3"/>
       <c r="BH168" s="3"/>
     </row>
-    <row r="169" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -11047,7 +11050,7 @@
       <c r="BG169" s="3"/>
       <c r="BH169" s="3"/>
     </row>
-    <row r="170" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -11107,7 +11110,7 @@
       <c r="BG170" s="3"/>
       <c r="BH170" s="3"/>
     </row>
-    <row r="171" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -11167,7 +11170,7 @@
       <c r="BG171" s="3"/>
       <c r="BH171" s="3"/>
     </row>
-    <row r="172" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -11227,7 +11230,7 @@
       <c r="BG172" s="3"/>
       <c r="BH172" s="3"/>
     </row>
-    <row r="173" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -11287,7 +11290,7 @@
       <c r="BG173" s="3"/>
       <c r="BH173" s="3"/>
     </row>
-    <row r="174" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -11347,7 +11350,7 @@
       <c r="BG174" s="3"/>
       <c r="BH174" s="3"/>
     </row>
-    <row r="175" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -11407,7 +11410,7 @@
       <c r="BG175" s="3"/>
       <c r="BH175" s="3"/>
     </row>
-    <row r="176" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -11467,7 +11470,7 @@
       <c r="BG176" s="3"/>
       <c r="BH176" s="3"/>
     </row>
-    <row r="177" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -11527,7 +11530,7 @@
       <c r="BG177" s="3"/>
       <c r="BH177" s="3"/>
     </row>
-    <row r="178" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -11587,7 +11590,7 @@
       <c r="BG178" s="3"/>
       <c r="BH178" s="3"/>
     </row>
-    <row r="179" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -11647,7 +11650,7 @@
       <c r="BG179" s="3"/>
       <c r="BH179" s="3"/>
     </row>
-    <row r="180" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -11707,7 +11710,7 @@
       <c r="BG180" s="3"/>
       <c r="BH180" s="3"/>
     </row>
-    <row r="181" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -11767,7 +11770,7 @@
       <c r="BG181" s="3"/>
       <c r="BH181" s="3"/>
     </row>
-    <row r="182" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -11827,7 +11830,7 @@
       <c r="BG182" s="3"/>
       <c r="BH182" s="3"/>
     </row>
-    <row r="183" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -11887,7 +11890,7 @@
       <c r="BG183" s="3"/>
       <c r="BH183" s="3"/>
     </row>
-    <row r="184" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -11947,7 +11950,7 @@
       <c r="BG184" s="3"/>
       <c r="BH184" s="3"/>
     </row>
-    <row r="185" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -12007,7 +12010,7 @@
       <c r="BG185" s="3"/>
       <c r="BH185" s="3"/>
     </row>
-    <row r="186" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -12067,7 +12070,7 @@
       <c r="BG186" s="3"/>
       <c r="BH186" s="3"/>
     </row>
-    <row r="187" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -12127,7 +12130,7 @@
       <c r="BG187" s="3"/>
       <c r="BH187" s="3"/>
     </row>
-    <row r="188" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -12187,7 +12190,7 @@
       <c r="BG188" s="3"/>
       <c r="BH188" s="3"/>
     </row>
-    <row r="189" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -12247,7 +12250,7 @@
       <c r="BG189" s="3"/>
       <c r="BH189" s="3"/>
     </row>
-    <row r="190" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -12307,7 +12310,7 @@
       <c r="BG190" s="3"/>
       <c r="BH190" s="3"/>
     </row>
-    <row r="191" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -12367,7 +12370,7 @@
       <c r="BG191" s="3"/>
       <c r="BH191" s="3"/>
     </row>
-    <row r="192" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -12427,7 +12430,7 @@
       <c r="BG192" s="3"/>
       <c r="BH192" s="3"/>
     </row>
-    <row r="193" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -12487,7 +12490,7 @@
       <c r="BG193" s="3"/>
       <c r="BH193" s="3"/>
     </row>
-    <row r="194" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -12547,7 +12550,7 @@
       <c r="BG194" s="3"/>
       <c r="BH194" s="3"/>
     </row>
-    <row r="195" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -12607,7 +12610,7 @@
       <c r="BG195" s="3"/>
       <c r="BH195" s="3"/>
     </row>
-    <row r="196" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -12667,7 +12670,7 @@
       <c r="BG196" s="3"/>
       <c r="BH196" s="3"/>
     </row>
-    <row r="197" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -12727,7 +12730,7 @@
       <c r="BG197" s="3"/>
       <c r="BH197" s="3"/>
     </row>
-    <row r="198" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -12787,7 +12790,7 @@
       <c r="BG198" s="3"/>
       <c r="BH198" s="3"/>
     </row>
-    <row r="199" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -12847,7 +12850,7 @@
       <c r="BG199" s="3"/>
       <c r="BH199" s="3"/>
     </row>
-    <row r="200" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -12907,7 +12910,7 @@
       <c r="BG200" s="3"/>
       <c r="BH200" s="3"/>
     </row>
-    <row r="201" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -12967,7 +12970,7 @@
       <c r="BG201" s="3"/>
       <c r="BH201" s="3"/>
     </row>
-    <row r="202" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -13027,7 +13030,7 @@
       <c r="BG202" s="3"/>
       <c r="BH202" s="3"/>
     </row>
-    <row r="203" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -13087,7 +13090,7 @@
       <c r="BG203" s="3"/>
       <c r="BH203" s="3"/>
     </row>
-    <row r="204" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -13147,7 +13150,7 @@
       <c r="BG204" s="3"/>
       <c r="BH204" s="3"/>
     </row>
-    <row r="205" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -13207,7 +13210,7 @@
       <c r="BG205" s="3"/>
       <c r="BH205" s="3"/>
     </row>
-    <row r="206" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -13267,7 +13270,7 @@
       <c r="BG206" s="3"/>
       <c r="BH206" s="3"/>
     </row>
-    <row r="207" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -13327,7 +13330,7 @@
       <c r="BG207" s="3"/>
       <c r="BH207" s="3"/>
     </row>
-    <row r="208" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -13387,7 +13390,7 @@
       <c r="BG208" s="3"/>
       <c r="BH208" s="3"/>
     </row>
-    <row r="209" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -13447,7 +13450,7 @@
       <c r="BG209" s="3"/>
       <c r="BH209" s="3"/>
     </row>
-    <row r="210" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -13507,7 +13510,7 @@
       <c r="BG210" s="3"/>
       <c r="BH210" s="3"/>
     </row>
-    <row r="211" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -13567,7 +13570,7 @@
       <c r="BG211" s="3"/>
       <c r="BH211" s="3"/>
     </row>
-    <row r="212" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -13627,7 +13630,7 @@
       <c r="BG212" s="3"/>
       <c r="BH212" s="3"/>
     </row>
-    <row r="213" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -13687,7 +13690,7 @@
       <c r="BG213" s="3"/>
       <c r="BH213" s="3"/>
     </row>
-    <row r="214" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -13747,7 +13750,7 @@
       <c r="BG214" s="3"/>
       <c r="BH214" s="3"/>
     </row>
-    <row r="215" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -13807,7 +13810,7 @@
       <c r="BG215" s="3"/>
       <c r="BH215" s="3"/>
     </row>
-    <row r="216" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -13867,7 +13870,7 @@
       <c r="BG216" s="3"/>
       <c r="BH216" s="3"/>
     </row>
-    <row r="217" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -13927,7 +13930,7 @@
       <c r="BG217" s="3"/>
       <c r="BH217" s="3"/>
     </row>
-    <row r="218" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -13987,7 +13990,7 @@
       <c r="BG218" s="3"/>
       <c r="BH218" s="3"/>
     </row>
-    <row r="219" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -14047,7 +14050,7 @@
       <c r="BG219" s="3"/>
       <c r="BH219" s="3"/>
     </row>
-    <row r="220" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -14107,7 +14110,7 @@
       <c r="BG220" s="3"/>
       <c r="BH220" s="3"/>
     </row>
-    <row r="221" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -14167,7 +14170,7 @@
       <c r="BG221" s="3"/>
       <c r="BH221" s="3"/>
     </row>
-    <row r="222" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -14227,7 +14230,7 @@
       <c r="BG222" s="3"/>
       <c r="BH222" s="3"/>
     </row>
-    <row r="223" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -14287,7 +14290,7 @@
       <c r="BG223" s="3"/>
       <c r="BH223" s="3"/>
     </row>
-    <row r="224" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -14347,7 +14350,7 @@
       <c r="BG224" s="3"/>
       <c r="BH224" s="3"/>
     </row>
-    <row r="225" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -14407,7 +14410,7 @@
       <c r="BG225" s="3"/>
       <c r="BH225" s="3"/>
     </row>
-    <row r="226" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -14467,7 +14470,7 @@
       <c r="BG226" s="3"/>
       <c r="BH226" s="3"/>
     </row>
-    <row r="227" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -14527,7 +14530,7 @@
       <c r="BG227" s="3"/>
       <c r="BH227" s="3"/>
     </row>
-    <row r="228" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -14587,7 +14590,7 @@
       <c r="BG228" s="3"/>
       <c r="BH228" s="3"/>
     </row>
-    <row r="229" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -14647,7 +14650,7 @@
       <c r="BG229" s="3"/>
       <c r="BH229" s="3"/>
     </row>
-    <row r="230" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -14707,7 +14710,7 @@
       <c r="BG230" s="3"/>
       <c r="BH230" s="3"/>
     </row>
-    <row r="231" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -14767,7 +14770,7 @@
       <c r="BG231" s="3"/>
       <c r="BH231" s="3"/>
     </row>
-    <row r="232" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -14827,7 +14830,7 @@
       <c r="BG232" s="3"/>
       <c r="BH232" s="3"/>
     </row>
-    <row r="233" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -14887,7 +14890,7 @@
       <c r="BG233" s="3"/>
       <c r="BH233" s="3"/>
     </row>
-    <row r="234" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -14947,7 +14950,7 @@
       <c r="BG234" s="3"/>
       <c r="BH234" s="3"/>
     </row>
-    <row r="235" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -15007,7 +15010,7 @@
       <c r="BG235" s="3"/>
       <c r="BH235" s="3"/>
     </row>
-    <row r="236" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -15067,7 +15070,7 @@
       <c r="BG236" s="3"/>
       <c r="BH236" s="3"/>
     </row>
-    <row r="237" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -15127,7 +15130,7 @@
       <c r="BG237" s="3"/>
       <c r="BH237" s="3"/>
     </row>
-    <row r="238" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -15187,7 +15190,7 @@
       <c r="BG238" s="3"/>
       <c r="BH238" s="3"/>
     </row>
-    <row r="239" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -15247,7 +15250,7 @@
       <c r="BG239" s="3"/>
       <c r="BH239" s="3"/>
     </row>
-    <row r="240" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -15307,7 +15310,7 @@
       <c r="BG240" s="3"/>
       <c r="BH240" s="3"/>
     </row>
-    <row r="241" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -15367,7 +15370,7 @@
       <c r="BG241" s="3"/>
       <c r="BH241" s="3"/>
     </row>
-    <row r="242" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -15427,7 +15430,7 @@
       <c r="BG242" s="3"/>
       <c r="BH242" s="3"/>
     </row>
-    <row r="243" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -15487,7 +15490,7 @@
       <c r="BG243" s="3"/>
       <c r="BH243" s="3"/>
     </row>
-    <row r="244" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -15547,7 +15550,7 @@
       <c r="BG244" s="3"/>
       <c r="BH244" s="3"/>
     </row>
-    <row r="245" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -15607,7 +15610,7 @@
       <c r="BG245" s="3"/>
       <c r="BH245" s="3"/>
     </row>
-    <row r="246" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -15667,7 +15670,7 @@
       <c r="BG246" s="3"/>
       <c r="BH246" s="3"/>
     </row>
-    <row r="247" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -15727,7 +15730,7 @@
       <c r="BG247" s="3"/>
       <c r="BH247" s="3"/>
     </row>
-    <row r="248" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -15787,7 +15790,7 @@
       <c r="BG248" s="3"/>
       <c r="BH248" s="3"/>
     </row>
-    <row r="249" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -15847,7 +15850,7 @@
       <c r="BG249" s="3"/>
       <c r="BH249" s="3"/>
     </row>
-    <row r="250" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -15907,7 +15910,7 @@
       <c r="BG250" s="3"/>
       <c r="BH250" s="3"/>
     </row>
-    <row r="251" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -15967,7 +15970,7 @@
       <c r="BG251" s="3"/>
       <c r="BH251" s="3"/>
     </row>
-    <row r="252" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -16027,7 +16030,7 @@
       <c r="BG252" s="3"/>
       <c r="BH252" s="3"/>
     </row>
-    <row r="253" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -16087,7 +16090,7 @@
       <c r="BG253" s="3"/>
       <c r="BH253" s="3"/>
     </row>
-    <row r="254" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -16147,7 +16150,7 @@
       <c r="BG254" s="3"/>
       <c r="BH254" s="3"/>
     </row>
-    <row r="255" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -16207,7 +16210,7 @@
       <c r="BG255" s="3"/>
       <c r="BH255" s="3"/>
     </row>
-    <row r="256" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -16267,7 +16270,7 @@
       <c r="BG256" s="3"/>
       <c r="BH256" s="3"/>
     </row>
-    <row r="257" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -16327,7 +16330,7 @@
       <c r="BG257" s="3"/>
       <c r="BH257" s="3"/>
     </row>
-    <row r="258" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -16387,7 +16390,7 @@
       <c r="BG258" s="3"/>
       <c r="BH258" s="3"/>
     </row>
-    <row r="259" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -16447,7 +16450,7 @@
       <c r="BG259" s="3"/>
       <c r="BH259" s="3"/>
     </row>
-    <row r="260" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -16507,7 +16510,7 @@
       <c r="BG260" s="3"/>
       <c r="BH260" s="3"/>
     </row>
-    <row r="261" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -16567,7 +16570,7 @@
       <c r="BG261" s="3"/>
       <c r="BH261" s="3"/>
     </row>
-    <row r="262" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -16627,7 +16630,7 @@
       <c r="BG262" s="3"/>
       <c r="BH262" s="3"/>
     </row>
-    <row r="263" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -16687,7 +16690,7 @@
       <c r="BG263" s="3"/>
       <c r="BH263" s="3"/>
     </row>
-    <row r="264" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -16747,7 +16750,7 @@
       <c r="BG264" s="3"/>
       <c r="BH264" s="3"/>
     </row>
-    <row r="265" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -16807,7 +16810,7 @@
       <c r="BG265" s="3"/>
       <c r="BH265" s="3"/>
     </row>
-    <row r="266" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
@@ -16867,7 +16870,7 @@
       <c r="BG266" s="3"/>
       <c r="BH266" s="3"/>
     </row>
-    <row r="267" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -16927,7 +16930,7 @@
       <c r="BG267" s="3"/>
       <c r="BH267" s="3"/>
     </row>
-    <row r="268" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -16987,7 +16990,7 @@
       <c r="BG268" s="3"/>
       <c r="BH268" s="3"/>
     </row>
-    <row r="269" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -17047,7 +17050,7 @@
       <c r="BG269" s="3"/>
       <c r="BH269" s="3"/>
     </row>
-    <row r="270" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -17107,7 +17110,7 @@
       <c r="BG270" s="3"/>
       <c r="BH270" s="3"/>
     </row>
-    <row r="271" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -17167,7 +17170,7 @@
       <c r="BG271" s="3"/>
       <c r="BH271" s="3"/>
     </row>
-    <row r="272" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
@@ -17227,7 +17230,7 @@
       <c r="BG272" s="3"/>
       <c r="BH272" s="3"/>
     </row>
-    <row r="273" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
@@ -17287,7 +17290,7 @@
       <c r="BG273" s="3"/>
       <c r="BH273" s="3"/>
     </row>
-    <row r="274" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
@@ -17347,7 +17350,7 @@
       <c r="BG274" s="3"/>
       <c r="BH274" s="3"/>
     </row>
-    <row r="275" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
@@ -17407,7 +17410,7 @@
       <c r="BG275" s="3"/>
       <c r="BH275" s="3"/>
     </row>
-    <row r="276" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
@@ -17467,7 +17470,7 @@
       <c r="BG276" s="3"/>
       <c r="BH276" s="3"/>
     </row>
-    <row r="277" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
@@ -17527,7 +17530,7 @@
       <c r="BG277" s="3"/>
       <c r="BH277" s="3"/>
     </row>
-    <row r="278" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
@@ -17587,7 +17590,7 @@
       <c r="BG278" s="3"/>
       <c r="BH278" s="3"/>
     </row>
-    <row r="279" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
@@ -17647,7 +17650,7 @@
       <c r="BG279" s="3"/>
       <c r="BH279" s="3"/>
     </row>
-    <row r="280" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
@@ -17707,7 +17710,7 @@
       <c r="BG280" s="3"/>
       <c r="BH280" s="3"/>
     </row>
-    <row r="281" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
@@ -17767,7 +17770,7 @@
       <c r="BG281" s="3"/>
       <c r="BH281" s="3"/>
     </row>
-    <row r="282" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
@@ -17827,7 +17830,7 @@
       <c r="BG282" s="3"/>
       <c r="BH282" s="3"/>
     </row>
-    <row r="283" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
@@ -17887,7 +17890,7 @@
       <c r="BG283" s="3"/>
       <c r="BH283" s="3"/>
     </row>
-    <row r="284" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
@@ -17947,7 +17950,7 @@
       <c r="BG284" s="3"/>
       <c r="BH284" s="3"/>
     </row>
-    <row r="285" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
@@ -18007,7 +18010,7 @@
       <c r="BG285" s="3"/>
       <c r="BH285" s="3"/>
     </row>
-    <row r="286" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
@@ -18067,7 +18070,7 @@
       <c r="BG286" s="3"/>
       <c r="BH286" s="3"/>
     </row>
-    <row r="287" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
@@ -18127,7 +18130,7 @@
       <c r="BG287" s="3"/>
       <c r="BH287" s="3"/>
     </row>
-    <row r="288" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
@@ -18187,7 +18190,7 @@
       <c r="BG288" s="3"/>
       <c r="BH288" s="3"/>
     </row>
-    <row r="289" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
@@ -18247,7 +18250,7 @@
       <c r="BG289" s="3"/>
       <c r="BH289" s="3"/>
     </row>
-    <row r="290" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
@@ -18307,7 +18310,7 @@
       <c r="BG290" s="3"/>
       <c r="BH290" s="3"/>
     </row>
-    <row r="291" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
@@ -18367,7 +18370,7 @@
       <c r="BG291" s="3"/>
       <c r="BH291" s="3"/>
     </row>
-    <row r="292" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
@@ -18427,7 +18430,7 @@
       <c r="BG292" s="3"/>
       <c r="BH292" s="3"/>
     </row>
-    <row r="293" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
@@ -18487,7 +18490,7 @@
       <c r="BG293" s="3"/>
       <c r="BH293" s="3"/>
     </row>
-    <row r="294" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
@@ -18547,7 +18550,7 @@
       <c r="BG294" s="3"/>
       <c r="BH294" s="3"/>
     </row>
-    <row r="295" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
@@ -18607,7 +18610,7 @@
       <c r="BG295" s="3"/>
       <c r="BH295" s="3"/>
     </row>
-    <row r="296" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
@@ -18667,7 +18670,7 @@
       <c r="BG296" s="3"/>
       <c r="BH296" s="3"/>
     </row>
-    <row r="297" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
@@ -18727,7 +18730,7 @@
       <c r="BG297" s="3"/>
       <c r="BH297" s="3"/>
     </row>
-    <row r="298" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
@@ -18787,7 +18790,7 @@
       <c r="BG298" s="3"/>
       <c r="BH298" s="3"/>
     </row>
-    <row r="299" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
@@ -18847,7 +18850,7 @@
       <c r="BG299" s="3"/>
       <c r="BH299" s="3"/>
     </row>
-    <row r="300" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
@@ -18907,7 +18910,7 @@
       <c r="BG300" s="3"/>
       <c r="BH300" s="3"/>
     </row>
-    <row r="301" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
@@ -18967,7 +18970,7 @@
       <c r="BG301" s="3"/>
       <c r="BH301" s="3"/>
     </row>
-    <row r="302" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
@@ -19027,7 +19030,7 @@
       <c r="BG302" s="3"/>
       <c r="BH302" s="3"/>
     </row>
-    <row r="303" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
@@ -19087,7 +19090,7 @@
       <c r="BG303" s="3"/>
       <c r="BH303" s="3"/>
     </row>
-    <row r="304" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
@@ -19147,7 +19150,7 @@
       <c r="BG304" s="3"/>
       <c r="BH304" s="3"/>
     </row>
-    <row r="305" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
@@ -19207,7 +19210,7 @@
       <c r="BG305" s="3"/>
       <c r="BH305" s="3"/>
     </row>
-    <row r="306" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
@@ -19267,7 +19270,7 @@
       <c r="BG306" s="3"/>
       <c r="BH306" s="3"/>
     </row>
-    <row r="307" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
@@ -19327,7 +19330,7 @@
       <c r="BG307" s="3"/>
       <c r="BH307" s="3"/>
     </row>
-    <row r="308" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
@@ -19387,7 +19390,7 @@
       <c r="BG308" s="3"/>
       <c r="BH308" s="3"/>
     </row>
-    <row r="309" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
@@ -19447,7 +19450,7 @@
       <c r="BG309" s="3"/>
       <c r="BH309" s="3"/>
     </row>
-    <row r="310" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
@@ -19507,7 +19510,7 @@
       <c r="BG310" s="3"/>
       <c r="BH310" s="3"/>
     </row>
-    <row r="311" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
@@ -19567,7 +19570,7 @@
       <c r="BG311" s="3"/>
       <c r="BH311" s="3"/>
     </row>
-    <row r="312" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
@@ -19627,7 +19630,7 @@
       <c r="BG312" s="3"/>
       <c r="BH312" s="3"/>
     </row>
-    <row r="313" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
@@ -19687,7 +19690,7 @@
       <c r="BG313" s="3"/>
       <c r="BH313" s="3"/>
     </row>
-    <row r="314" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
@@ -19747,7 +19750,7 @@
       <c r="BG314" s="3"/>
       <c r="BH314" s="3"/>
     </row>
-    <row r="315" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
@@ -19807,7 +19810,7 @@
       <c r="BG315" s="3"/>
       <c r="BH315" s="3"/>
     </row>
-    <row r="316" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
@@ -19867,7 +19870,7 @@
       <c r="BG316" s="3"/>
       <c r="BH316" s="3"/>
     </row>
-    <row r="317" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
@@ -19927,7 +19930,7 @@
       <c r="BG317" s="3"/>
       <c r="BH317" s="3"/>
     </row>
-    <row r="318" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
@@ -19987,7 +19990,7 @@
       <c r="BG318" s="3"/>
       <c r="BH318" s="3"/>
     </row>
-    <row r="319" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
@@ -20047,7 +20050,7 @@
       <c r="BG319" s="3"/>
       <c r="BH319" s="3"/>
     </row>
-    <row r="320" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
@@ -20107,7 +20110,7 @@
       <c r="BG320" s="3"/>
       <c r="BH320" s="3"/>
     </row>
-    <row r="321" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
@@ -20167,7 +20170,7 @@
       <c r="BG321" s="3"/>
       <c r="BH321" s="3"/>
     </row>
-    <row r="322" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
@@ -20227,7 +20230,7 @@
       <c r="BG322" s="3"/>
       <c r="BH322" s="3"/>
     </row>
-    <row r="323" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
@@ -20287,7 +20290,7 @@
       <c r="BG323" s="3"/>
       <c r="BH323" s="3"/>
     </row>
-    <row r="324" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
@@ -20347,7 +20350,7 @@
       <c r="BG324" s="3"/>
       <c r="BH324" s="3"/>
     </row>
-    <row r="325" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
@@ -20407,7 +20410,7 @@
       <c r="BG325" s="3"/>
       <c r="BH325" s="3"/>
     </row>
-    <row r="326" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
@@ -20467,7 +20470,7 @@
       <c r="BG326" s="3"/>
       <c r="BH326" s="3"/>
     </row>
-    <row r="327" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
@@ -20527,7 +20530,7 @@
       <c r="BG327" s="3"/>
       <c r="BH327" s="3"/>
     </row>
-    <row r="328" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
@@ -20587,7 +20590,7 @@
       <c r="BG328" s="3"/>
       <c r="BH328" s="3"/>
     </row>
-    <row r="329" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
@@ -20647,7 +20650,7 @@
       <c r="BG329" s="3"/>
       <c r="BH329" s="3"/>
     </row>
-    <row r="330" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
@@ -20707,7 +20710,7 @@
       <c r="BG330" s="3"/>
       <c r="BH330" s="3"/>
     </row>
-    <row r="331" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
@@ -20767,7 +20770,7 @@
       <c r="BG331" s="3"/>
       <c r="BH331" s="3"/>
     </row>
-    <row r="332" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
@@ -20827,7 +20830,7 @@
       <c r="BG332" s="3"/>
       <c r="BH332" s="3"/>
     </row>
-    <row r="333" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
@@ -20887,7 +20890,7 @@
       <c r="BG333" s="3"/>
       <c r="BH333" s="3"/>
     </row>
-    <row r="334" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
@@ -20947,7 +20950,7 @@
       <c r="BG334" s="3"/>
       <c r="BH334" s="3"/>
     </row>
-    <row r="335" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
@@ -21007,7 +21010,7 @@
       <c r="BG335" s="3"/>
       <c r="BH335" s="3"/>
     </row>
-    <row r="336" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
@@ -21067,7 +21070,7 @@
       <c r="BG336" s="3"/>
       <c r="BH336" s="3"/>
     </row>
-    <row r="337" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
@@ -21127,7 +21130,7 @@
       <c r="BG337" s="3"/>
       <c r="BH337" s="3"/>
     </row>
-    <row r="338" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
@@ -21187,7 +21190,7 @@
       <c r="BG338" s="3"/>
       <c r="BH338" s="3"/>
     </row>
-    <row r="339" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
@@ -21247,7 +21250,7 @@
       <c r="BG339" s="3"/>
       <c r="BH339" s="3"/>
     </row>
-    <row r="340" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
@@ -21307,7 +21310,7 @@
       <c r="BG340" s="3"/>
       <c r="BH340" s="3"/>
     </row>
-    <row r="341" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
@@ -21367,7 +21370,7 @@
       <c r="BG341" s="3"/>
       <c r="BH341" s="3"/>
     </row>
-    <row r="342" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
@@ -21427,7 +21430,7 @@
       <c r="BG342" s="3"/>
       <c r="BH342" s="3"/>
     </row>
-    <row r="343" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
@@ -21487,7 +21490,7 @@
       <c r="BG343" s="3"/>
       <c r="BH343" s="3"/>
     </row>
-    <row r="344" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
@@ -21547,7 +21550,7 @@
       <c r="BG344" s="3"/>
       <c r="BH344" s="3"/>
     </row>
-    <row r="345" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
@@ -21607,7 +21610,7 @@
       <c r="BG345" s="3"/>
       <c r="BH345" s="3"/>
     </row>
-    <row r="346" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
@@ -21667,7 +21670,7 @@
       <c r="BG346" s="3"/>
       <c r="BH346" s="3"/>
     </row>
-    <row r="347" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
@@ -21727,7 +21730,7 @@
       <c r="BG347" s="3"/>
       <c r="BH347" s="3"/>
     </row>
-    <row r="348" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
@@ -21787,7 +21790,7 @@
       <c r="BG348" s="3"/>
       <c r="BH348" s="3"/>
     </row>
-    <row r="349" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
@@ -21847,7 +21850,7 @@
       <c r="BG349" s="3"/>
       <c r="BH349" s="3"/>
     </row>
-    <row r="350" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
@@ -21907,7 +21910,7 @@
       <c r="BG350" s="3"/>
       <c r="BH350" s="3"/>
     </row>
-    <row r="351" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
@@ -21967,7 +21970,7 @@
       <c r="BG351" s="3"/>
       <c r="BH351" s="3"/>
     </row>
-    <row r="352" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
@@ -22027,7 +22030,7 @@
       <c r="BG352" s="3"/>
       <c r="BH352" s="3"/>
     </row>
-    <row r="353" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
@@ -22087,7 +22090,7 @@
       <c r="BG353" s="3"/>
       <c r="BH353" s="3"/>
     </row>
-    <row r="354" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
@@ -22147,7 +22150,7 @@
       <c r="BG354" s="3"/>
       <c r="BH354" s="3"/>
     </row>
-    <row r="355" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
@@ -22207,7 +22210,7 @@
       <c r="BG355" s="3"/>
       <c r="BH355" s="3"/>
     </row>
-    <row r="356" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
@@ -22267,7 +22270,7 @@
       <c r="BG356" s="3"/>
       <c r="BH356" s="3"/>
     </row>
-    <row r="357" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
@@ -22327,7 +22330,7 @@
       <c r="BG357" s="3"/>
       <c r="BH357" s="3"/>
     </row>
-    <row r="358" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
@@ -22387,7 +22390,7 @@
       <c r="BG358" s="3"/>
       <c r="BH358" s="3"/>
     </row>
-    <row r="359" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
@@ -22447,7 +22450,7 @@
       <c r="BG359" s="3"/>
       <c r="BH359" s="3"/>
     </row>
-    <row r="360" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
@@ -22507,7 +22510,7 @@
       <c r="BG360" s="3"/>
       <c r="BH360" s="3"/>
     </row>
-    <row r="361" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
@@ -22567,7 +22570,7 @@
       <c r="BG361" s="3"/>
       <c r="BH361" s="3"/>
     </row>
-    <row r="362" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
@@ -22627,7 +22630,7 @@
       <c r="BG362" s="3"/>
       <c r="BH362" s="3"/>
     </row>
-    <row r="363" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
       <c r="E363" s="3"/>
@@ -22687,7 +22690,7 @@
       <c r="BG363" s="3"/>
       <c r="BH363" s="3"/>
     </row>
-    <row r="364" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
@@ -22747,7 +22750,7 @@
       <c r="BG364" s="3"/>
       <c r="BH364" s="3"/>
     </row>
-    <row r="365" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
@@ -22807,7 +22810,7 @@
       <c r="BG365" s="3"/>
       <c r="BH365" s="3"/>
     </row>
-    <row r="366" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
@@ -22867,7 +22870,7 @@
       <c r="BG366" s="3"/>
       <c r="BH366" s="3"/>
     </row>
-    <row r="367" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
@@ -22927,7 +22930,7 @@
       <c r="BG367" s="3"/>
       <c r="BH367" s="3"/>
     </row>
-    <row r="368" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
@@ -22987,7 +22990,7 @@
       <c r="BG368" s="3"/>
       <c r="BH368" s="3"/>
     </row>
-    <row r="369" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
@@ -23047,7 +23050,7 @@
       <c r="BG369" s="3"/>
       <c r="BH369" s="3"/>
     </row>
-    <row r="370" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
@@ -23107,7 +23110,7 @@
       <c r="BG370" s="3"/>
       <c r="BH370" s="3"/>
     </row>
-    <row r="371" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
@@ -23167,7 +23170,7 @@
       <c r="BG371" s="3"/>
       <c r="BH371" s="3"/>
     </row>
-    <row r="372" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
       <c r="E372" s="3"/>
@@ -23227,7 +23230,7 @@
       <c r="BG372" s="3"/>
       <c r="BH372" s="3"/>
     </row>
-    <row r="373" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
       <c r="E373" s="3"/>
@@ -23287,7 +23290,7 @@
       <c r="BG373" s="3"/>
       <c r="BH373" s="3"/>
     </row>
-    <row r="374" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
       <c r="E374" s="3"/>
@@ -23347,7 +23350,7 @@
       <c r="BG374" s="3"/>
       <c r="BH374" s="3"/>
     </row>
-    <row r="375" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
@@ -23407,7 +23410,7 @@
       <c r="BG375" s="3"/>
       <c r="BH375" s="3"/>
     </row>
-    <row r="376" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
@@ -23467,7 +23470,7 @@
       <c r="BG376" s="3"/>
       <c r="BH376" s="3"/>
     </row>
-    <row r="377" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
       <c r="E377" s="3"/>
@@ -23527,7 +23530,7 @@
       <c r="BG377" s="3"/>
       <c r="BH377" s="3"/>
     </row>
-    <row r="378" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
       <c r="E378" s="3"/>
@@ -23587,7 +23590,7 @@
       <c r="BG378" s="3"/>
       <c r="BH378" s="3"/>
     </row>
-    <row r="379" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
       <c r="E379" s="3"/>
@@ -23647,7 +23650,7 @@
       <c r="BG379" s="3"/>
       <c r="BH379" s="3"/>
     </row>
-    <row r="380" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
       <c r="E380" s="3"/>
@@ -23707,7 +23710,7 @@
       <c r="BG380" s="3"/>
       <c r="BH380" s="3"/>
     </row>
-    <row r="381" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
       <c r="E381" s="3"/>
@@ -23767,7 +23770,7 @@
       <c r="BG381" s="3"/>
       <c r="BH381" s="3"/>
     </row>
-    <row r="382" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
       <c r="E382" s="3"/>
@@ -23827,7 +23830,7 @@
       <c r="BG382" s="3"/>
       <c r="BH382" s="3"/>
     </row>
-    <row r="383" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
       <c r="E383" s="3"/>
@@ -23887,7 +23890,7 @@
       <c r="BG383" s="3"/>
       <c r="BH383" s="3"/>
     </row>
-    <row r="384" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
       <c r="E384" s="3"/>
@@ -23947,7 +23950,7 @@
       <c r="BG384" s="3"/>
       <c r="BH384" s="3"/>
     </row>
-    <row r="385" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
       <c r="E385" s="3"/>
@@ -24007,7 +24010,7 @@
       <c r="BG385" s="3"/>
       <c r="BH385" s="3"/>
     </row>
-    <row r="386" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
       <c r="E386" s="3"/>
@@ -24067,7 +24070,7 @@
       <c r="BG386" s="3"/>
       <c r="BH386" s="3"/>
     </row>
-    <row r="387" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
       <c r="E387" s="3"/>
@@ -24127,7 +24130,7 @@
       <c r="BG387" s="3"/>
       <c r="BH387" s="3"/>
     </row>
-    <row r="388" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
       <c r="E388" s="3"/>
@@ -24187,7 +24190,7 @@
       <c r="BG388" s="3"/>
       <c r="BH388" s="3"/>
     </row>
-    <row r="389" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
       <c r="E389" s="3"/>
@@ -24247,7 +24250,7 @@
       <c r="BG389" s="3"/>
       <c r="BH389" s="3"/>
     </row>
-    <row r="390" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
       <c r="E390" s="3"/>
@@ -24307,7 +24310,7 @@
       <c r="BG390" s="3"/>
       <c r="BH390" s="3"/>
     </row>
-    <row r="391" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
       <c r="E391" s="3"/>
@@ -24367,7 +24370,7 @@
       <c r="BG391" s="3"/>
       <c r="BH391" s="3"/>
     </row>
-    <row r="392" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
       <c r="E392" s="3"/>
@@ -24427,7 +24430,7 @@
       <c r="BG392" s="3"/>
       <c r="BH392" s="3"/>
     </row>
-    <row r="393" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
@@ -24487,7 +24490,7 @@
       <c r="BG393" s="3"/>
       <c r="BH393" s="3"/>
     </row>
-    <row r="394" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
       <c r="E394" s="3"/>
@@ -24547,7 +24550,7 @@
       <c r="BG394" s="3"/>
       <c r="BH394" s="3"/>
     </row>
-    <row r="395" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
       <c r="E395" s="3"/>
@@ -24607,7 +24610,7 @@
       <c r="BG395" s="3"/>
       <c r="BH395" s="3"/>
     </row>
-    <row r="396" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
       <c r="E396" s="3"/>
@@ -24667,7 +24670,7 @@
       <c r="BG396" s="3"/>
       <c r="BH396" s="3"/>
     </row>
-    <row r="397" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
       <c r="E397" s="3"/>
@@ -24727,7 +24730,7 @@
       <c r="BG397" s="3"/>
       <c r="BH397" s="3"/>
     </row>
-    <row r="398" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
       <c r="E398" s="3"/>
@@ -24787,7 +24790,7 @@
       <c r="BG398" s="3"/>
       <c r="BH398" s="3"/>
     </row>
-    <row r="399" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
       <c r="E399" s="3"/>
@@ -24847,7 +24850,7 @@
       <c r="BG399" s="3"/>
       <c r="BH399" s="3"/>
     </row>
-    <row r="400" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
       <c r="E400" s="3"/>
@@ -24907,7 +24910,7 @@
       <c r="BG400" s="3"/>
       <c r="BH400" s="3"/>
     </row>
-    <row r="401" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
       <c r="E401" s="3"/>
@@ -24967,7 +24970,7 @@
       <c r="BG401" s="3"/>
       <c r="BH401" s="3"/>
     </row>
-    <row r="402" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
       <c r="E402" s="3"/>
@@ -25027,7 +25030,7 @@
       <c r="BG402" s="3"/>
       <c r="BH402" s="3"/>
     </row>
-    <row r="403" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
       <c r="E403" s="3"/>
@@ -25087,7 +25090,7 @@
       <c r="BG403" s="3"/>
       <c r="BH403" s="3"/>
     </row>
-    <row r="404" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
       <c r="E404" s="3"/>
@@ -25147,7 +25150,7 @@
       <c r="BG404" s="3"/>
       <c r="BH404" s="3"/>
     </row>
-    <row r="405" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
       <c r="E405" s="3"/>
@@ -25207,7 +25210,7 @@
       <c r="BG405" s="3"/>
       <c r="BH405" s="3"/>
     </row>
-    <row r="406" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
       <c r="E406" s="3"/>
@@ -25267,7 +25270,7 @@
       <c r="BG406" s="3"/>
       <c r="BH406" s="3"/>
     </row>
-    <row r="407" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C407" s="3"/>
       <c r="D407" s="3"/>
       <c r="E407" s="3"/>
@@ -25327,7 +25330,7 @@
       <c r="BG407" s="3"/>
       <c r="BH407" s="3"/>
     </row>
-    <row r="408" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
@@ -25387,7 +25390,7 @@
       <c r="BG408" s="3"/>
       <c r="BH408" s="3"/>
     </row>
-    <row r="409" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
       <c r="E409" s="3"/>
@@ -25447,7 +25450,7 @@
       <c r="BG409" s="3"/>
       <c r="BH409" s="3"/>
     </row>
-    <row r="410" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
       <c r="E410" s="3"/>
@@ -25507,7 +25510,7 @@
       <c r="BG410" s="3"/>
       <c r="BH410" s="3"/>
     </row>
-    <row r="411" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
       <c r="E411" s="3"/>
@@ -25567,7 +25570,7 @@
       <c r="BG411" s="3"/>
       <c r="BH411" s="3"/>
     </row>
-    <row r="412" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
       <c r="E412" s="3"/>
@@ -25627,7 +25630,7 @@
       <c r="BG412" s="3"/>
       <c r="BH412" s="3"/>
     </row>
-    <row r="413" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
       <c r="E413" s="3"/>
@@ -25687,7 +25690,7 @@
       <c r="BG413" s="3"/>
       <c r="BH413" s="3"/>
     </row>
-    <row r="414" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
       <c r="E414" s="3"/>
@@ -25747,7 +25750,7 @@
       <c r="BG414" s="3"/>
       <c r="BH414" s="3"/>
     </row>
-    <row r="415" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
       <c r="E415" s="3"/>
@@ -25807,7 +25810,7 @@
       <c r="BG415" s="3"/>
       <c r="BH415" s="3"/>
     </row>
-    <row r="416" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
       <c r="E416" s="3"/>
@@ -25867,7 +25870,7 @@
       <c r="BG416" s="3"/>
       <c r="BH416" s="3"/>
     </row>
-    <row r="417" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
       <c r="E417" s="3"/>
@@ -25927,7 +25930,7 @@
       <c r="BG417" s="3"/>
       <c r="BH417" s="3"/>
     </row>
-    <row r="418" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
       <c r="E418" s="3"/>
@@ -25987,7 +25990,7 @@
       <c r="BG418" s="3"/>
       <c r="BH418" s="3"/>
     </row>
-    <row r="419" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
@@ -26047,7 +26050,7 @@
       <c r="BG419" s="3"/>
       <c r="BH419" s="3"/>
     </row>
-    <row r="420" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
       <c r="E420" s="3"/>
@@ -26107,7 +26110,7 @@
       <c r="BG420" s="3"/>
       <c r="BH420" s="3"/>
     </row>
-    <row r="421" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
       <c r="E421" s="3"/>
@@ -26167,7 +26170,7 @@
       <c r="BG421" s="3"/>
       <c r="BH421" s="3"/>
     </row>
-    <row r="422" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
       <c r="E422" s="3"/>
@@ -26227,7 +26230,7 @@
       <c r="BG422" s="3"/>
       <c r="BH422" s="3"/>
     </row>
-    <row r="423" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
       <c r="E423" s="3"/>
@@ -26287,7 +26290,7 @@
       <c r="BG423" s="3"/>
       <c r="BH423" s="3"/>
     </row>
-    <row r="424" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
       <c r="E424" s="3"/>
@@ -26347,7 +26350,7 @@
       <c r="BG424" s="3"/>
       <c r="BH424" s="3"/>
     </row>
-    <row r="425" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
       <c r="E425" s="3"/>
@@ -26407,7 +26410,7 @@
       <c r="BG425" s="3"/>
       <c r="BH425" s="3"/>
     </row>
-    <row r="426" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
       <c r="E426" s="3"/>
@@ -26467,7 +26470,7 @@
       <c r="BG426" s="3"/>
       <c r="BH426" s="3"/>
     </row>
-    <row r="427" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
       <c r="E427" s="3"/>
@@ -26527,7 +26530,7 @@
       <c r="BG427" s="3"/>
       <c r="BH427" s="3"/>
     </row>
-    <row r="428" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
       <c r="E428" s="3"/>
@@ -26587,7 +26590,7 @@
       <c r="BG428" s="3"/>
       <c r="BH428" s="3"/>
     </row>
-    <row r="429" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
       <c r="E429" s="3"/>
@@ -26647,7 +26650,7 @@
       <c r="BG429" s="3"/>
       <c r="BH429" s="3"/>
     </row>
-    <row r="430" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
       <c r="E430" s="3"/>
@@ -26707,7 +26710,7 @@
       <c r="BG430" s="3"/>
       <c r="BH430" s="3"/>
     </row>
-    <row r="431" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
       <c r="E431" s="3"/>
@@ -26767,7 +26770,7 @@
       <c r="BG431" s="3"/>
       <c r="BH431" s="3"/>
     </row>
-    <row r="432" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
       <c r="E432" s="3"/>
@@ -26827,7 +26830,7 @@
       <c r="BG432" s="3"/>
       <c r="BH432" s="3"/>
     </row>
-    <row r="433" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
       <c r="E433" s="3"/>
@@ -26887,7 +26890,7 @@
       <c r="BG433" s="3"/>
       <c r="BH433" s="3"/>
     </row>
-    <row r="434" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
       <c r="E434" s="3"/>
@@ -26947,7 +26950,7 @@
       <c r="BG434" s="3"/>
       <c r="BH434" s="3"/>
     </row>
-    <row r="435" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
       <c r="E435" s="3"/>
@@ -27007,7 +27010,7 @@
       <c r="BG435" s="3"/>
       <c r="BH435" s="3"/>
     </row>
-    <row r="436" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
       <c r="E436" s="3"/>
@@ -27067,7 +27070,7 @@
       <c r="BG436" s="3"/>
       <c r="BH436" s="3"/>
     </row>
-    <row r="437" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
       <c r="E437" s="3"/>
@@ -27127,7 +27130,7 @@
       <c r="BG437" s="3"/>
       <c r="BH437" s="3"/>
     </row>
-    <row r="438" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
       <c r="E438" s="3"/>
@@ -27187,7 +27190,7 @@
       <c r="BG438" s="3"/>
       <c r="BH438" s="3"/>
     </row>
-    <row r="439" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
       <c r="E439" s="3"/>
@@ -27247,7 +27250,7 @@
       <c r="BG439" s="3"/>
       <c r="BH439" s="3"/>
     </row>
-    <row r="440" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
       <c r="E440" s="3"/>
@@ -27307,7 +27310,7 @@
       <c r="BG440" s="3"/>
       <c r="BH440" s="3"/>
     </row>
-    <row r="441" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
       <c r="E441" s="3"/>
@@ -27367,7 +27370,7 @@
       <c r="BG441" s="3"/>
       <c r="BH441" s="3"/>
     </row>
-    <row r="442" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
       <c r="E442" s="3"/>
@@ -27427,7 +27430,7 @@
       <c r="BG442" s="3"/>
       <c r="BH442" s="3"/>
     </row>
-    <row r="443" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
       <c r="E443" s="3"/>
@@ -27487,7 +27490,7 @@
       <c r="BG443" s="3"/>
       <c r="BH443" s="3"/>
     </row>
-    <row r="444" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
       <c r="E444" s="3"/>
@@ -27547,7 +27550,7 @@
       <c r="BG444" s="3"/>
       <c r="BH444" s="3"/>
     </row>
-    <row r="445" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
@@ -27607,7 +27610,7 @@
       <c r="BG445" s="3"/>
       <c r="BH445" s="3"/>
     </row>
-    <row r="446" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
       <c r="E446" s="3"/>
@@ -27667,7 +27670,7 @@
       <c r="BG446" s="3"/>
       <c r="BH446" s="3"/>
     </row>
-    <row r="447" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
       <c r="E447" s="3"/>
@@ -27727,7 +27730,7 @@
       <c r="BG447" s="3"/>
       <c r="BH447" s="3"/>
     </row>
-    <row r="448" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
       <c r="E448" s="3"/>
@@ -27787,7 +27790,7 @@
       <c r="BG448" s="3"/>
       <c r="BH448" s="3"/>
     </row>
-    <row r="449" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
       <c r="E449" s="3"/>
@@ -27847,7 +27850,7 @@
       <c r="BG449" s="3"/>
       <c r="BH449" s="3"/>
     </row>
-    <row r="450" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
       <c r="E450" s="3"/>
@@ -27907,7 +27910,7 @@
       <c r="BG450" s="3"/>
       <c r="BH450" s="3"/>
     </row>
-    <row r="451" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
       <c r="E451" s="3"/>
@@ -27967,7 +27970,7 @@
       <c r="BG451" s="3"/>
       <c r="BH451" s="3"/>
     </row>
-    <row r="452" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
       <c r="E452" s="3"/>
@@ -28027,7 +28030,7 @@
       <c r="BG452" s="3"/>
       <c r="BH452" s="3"/>
     </row>
-    <row r="453" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C453" s="3"/>
       <c r="D453" s="3"/>
       <c r="E453" s="3"/>
@@ -28087,7 +28090,7 @@
       <c r="BG453" s="3"/>
       <c r="BH453" s="3"/>
     </row>
-    <row r="454" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C454" s="3"/>
       <c r="D454" s="3"/>
       <c r="E454" s="3"/>
@@ -28147,7 +28150,7 @@
       <c r="BG454" s="3"/>
       <c r="BH454" s="3"/>
     </row>
-    <row r="455" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C455" s="3"/>
       <c r="D455" s="3"/>
       <c r="E455" s="3"/>
@@ -28207,7 +28210,7 @@
       <c r="BG455" s="3"/>
       <c r="BH455" s="3"/>
     </row>
-    <row r="456" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C456" s="3"/>
       <c r="D456" s="3"/>
       <c r="E456" s="3"/>
@@ -28267,7 +28270,7 @@
       <c r="BG456" s="3"/>
       <c r="BH456" s="3"/>
     </row>
-    <row r="457" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C457" s="3"/>
       <c r="D457" s="3"/>
       <c r="E457" s="3"/>
@@ -28327,7 +28330,7 @@
       <c r="BG457" s="3"/>
       <c r="BH457" s="3"/>
     </row>
-    <row r="458" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C458" s="3"/>
       <c r="D458" s="3"/>
       <c r="E458" s="3"/>
@@ -28387,7 +28390,7 @@
       <c r="BG458" s="3"/>
       <c r="BH458" s="3"/>
     </row>
-    <row r="459" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C459" s="3"/>
       <c r="D459" s="3"/>
       <c r="E459" s="3"/>
@@ -28447,7 +28450,7 @@
       <c r="BG459" s="3"/>
       <c r="BH459" s="3"/>
     </row>
-    <row r="460" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C460" s="3"/>
       <c r="D460" s="3"/>
       <c r="E460" s="3"/>
@@ -28507,7 +28510,7 @@
       <c r="BG460" s="3"/>
       <c r="BH460" s="3"/>
     </row>
-    <row r="461" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C461" s="3"/>
       <c r="D461" s="3"/>
       <c r="E461" s="3"/>
@@ -28567,7 +28570,7 @@
       <c r="BG461" s="3"/>
       <c r="BH461" s="3"/>
     </row>
-    <row r="462" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C462" s="3"/>
       <c r="D462" s="3"/>
       <c r="E462" s="3"/>
@@ -28627,7 +28630,7 @@
       <c r="BG462" s="3"/>
       <c r="BH462" s="3"/>
     </row>
-    <row r="463" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C463" s="3"/>
       <c r="D463" s="3"/>
       <c r="E463" s="3"/>
@@ -28687,7 +28690,7 @@
       <c r="BG463" s="3"/>
       <c r="BH463" s="3"/>
     </row>
-    <row r="464" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C464" s="3"/>
       <c r="D464" s="3"/>
       <c r="E464" s="3"/>
@@ -28747,7 +28750,7 @@
       <c r="BG464" s="3"/>
       <c r="BH464" s="3"/>
     </row>
-    <row r="465" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C465" s="3"/>
       <c r="D465" s="3"/>
       <c r="E465" s="3"/>
@@ -28807,7 +28810,7 @@
       <c r="BG465" s="3"/>
       <c r="BH465" s="3"/>
     </row>
-    <row r="466" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C466" s="3"/>
       <c r="D466" s="3"/>
       <c r="E466" s="3"/>
@@ -28867,7 +28870,7 @@
       <c r="BG466" s="3"/>
       <c r="BH466" s="3"/>
     </row>
-    <row r="467" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C467" s="3"/>
       <c r="D467" s="3"/>
       <c r="E467" s="3"/>
@@ -28927,7 +28930,7 @@
       <c r="BG467" s="3"/>
       <c r="BH467" s="3"/>
     </row>
-    <row r="468" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C468" s="3"/>
       <c r="D468" s="3"/>
       <c r="E468" s="3"/>
@@ -28987,7 +28990,7 @@
       <c r="BG468" s="3"/>
       <c r="BH468" s="3"/>
     </row>
-    <row r="469" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C469" s="3"/>
       <c r="D469" s="3"/>
       <c r="E469" s="3"/>
@@ -29047,7 +29050,7 @@
       <c r="BG469" s="3"/>
       <c r="BH469" s="3"/>
     </row>
-    <row r="470" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C470" s="3"/>
       <c r="D470" s="3"/>
       <c r="E470" s="3"/>
@@ -29107,7 +29110,7 @@
       <c r="BG470" s="3"/>
       <c r="BH470" s="3"/>
     </row>
-    <row r="471" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C471" s="3"/>
       <c r="D471" s="3"/>
       <c r="E471" s="3"/>
@@ -29167,7 +29170,7 @@
       <c r="BG471" s="3"/>
       <c r="BH471" s="3"/>
     </row>
-    <row r="472" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C472" s="3"/>
       <c r="D472" s="3"/>
       <c r="E472" s="3"/>
@@ -29227,7 +29230,7 @@
       <c r="BG472" s="3"/>
       <c r="BH472" s="3"/>
     </row>
-    <row r="473" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C473" s="3"/>
       <c r="D473" s="3"/>
       <c r="E473" s="3"/>
@@ -29287,7 +29290,7 @@
       <c r="BG473" s="3"/>
       <c r="BH473" s="3"/>
     </row>
-    <row r="474" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C474" s="3"/>
       <c r="D474" s="3"/>
       <c r="E474" s="3"/>
@@ -29347,7 +29350,7 @@
       <c r="BG474" s="3"/>
       <c r="BH474" s="3"/>
     </row>
-    <row r="475" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C475" s="3"/>
       <c r="D475" s="3"/>
       <c r="E475" s="3"/>
@@ -29407,7 +29410,7 @@
       <c r="BG475" s="3"/>
       <c r="BH475" s="3"/>
     </row>
-    <row r="476" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C476" s="3"/>
       <c r="D476" s="3"/>
       <c r="E476" s="3"/>
@@ -29467,7 +29470,7 @@
       <c r="BG476" s="3"/>
       <c r="BH476" s="3"/>
     </row>
-    <row r="477" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C477" s="3"/>
       <c r="D477" s="3"/>
       <c r="E477" s="3"/>
@@ -29527,7 +29530,7 @@
       <c r="BG477" s="3"/>
       <c r="BH477" s="3"/>
     </row>
-    <row r="478" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C478" s="3"/>
       <c r="D478" s="3"/>
       <c r="E478" s="3"/>
@@ -29587,7 +29590,7 @@
       <c r="BG478" s="3"/>
       <c r="BH478" s="3"/>
     </row>
-    <row r="479" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C479" s="3"/>
       <c r="D479" s="3"/>
       <c r="E479" s="3"/>
@@ -29647,7 +29650,7 @@
       <c r="BG479" s="3"/>
       <c r="BH479" s="3"/>
     </row>
-    <row r="480" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C480" s="3"/>
       <c r="D480" s="3"/>
       <c r="E480" s="3"/>
@@ -29707,7 +29710,7 @@
       <c r="BG480" s="3"/>
       <c r="BH480" s="3"/>
     </row>
-    <row r="481" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C481" s="3"/>
       <c r="D481" s="3"/>
       <c r="E481" s="3"/>
@@ -29767,7 +29770,7 @@
       <c r="BG481" s="3"/>
       <c r="BH481" s="3"/>
     </row>
-    <row r="482" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C482" s="3"/>
       <c r="D482" s="3"/>
       <c r="E482" s="3"/>
@@ -29827,7 +29830,7 @@
       <c r="BG482" s="3"/>
       <c r="BH482" s="3"/>
     </row>
-    <row r="483" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C483" s="3"/>
       <c r="D483" s="3"/>
       <c r="E483" s="3"/>
@@ -29887,7 +29890,7 @@
       <c r="BG483" s="3"/>
       <c r="BH483" s="3"/>
     </row>
-    <row r="484" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C484" s="3"/>
       <c r="D484" s="3"/>
       <c r="E484" s="3"/>
@@ -29947,7 +29950,7 @@
       <c r="BG484" s="3"/>
       <c r="BH484" s="3"/>
     </row>
-    <row r="485" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C485" s="3"/>
       <c r="D485" s="3"/>
       <c r="E485" s="3"/>
@@ -30007,7 +30010,7 @@
       <c r="BG485" s="3"/>
       <c r="BH485" s="3"/>
     </row>
-    <row r="486" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C486" s="3"/>
       <c r="D486" s="3"/>
       <c r="E486" s="3"/>
@@ -30067,7 +30070,7 @@
       <c r="BG486" s="3"/>
       <c r="BH486" s="3"/>
     </row>
-    <row r="487" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C487" s="3"/>
       <c r="D487" s="3"/>
       <c r="E487" s="3"/>
@@ -30127,7 +30130,7 @@
       <c r="BG487" s="3"/>
       <c r="BH487" s="3"/>
     </row>
-    <row r="488" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C488" s="3"/>
       <c r="D488" s="3"/>
       <c r="E488" s="3"/>
@@ -30187,7 +30190,7 @@
       <c r="BG488" s="3"/>
       <c r="BH488" s="3"/>
     </row>
-    <row r="489" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C489" s="3"/>
       <c r="D489" s="3"/>
       <c r="E489" s="3"/>
@@ -30247,7 +30250,7 @@
       <c r="BG489" s="3"/>
       <c r="BH489" s="3"/>
     </row>
-    <row r="490" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C490" s="3"/>
       <c r="D490" s="3"/>
       <c r="E490" s="3"/>
@@ -30307,7 +30310,7 @@
       <c r="BG490" s="3"/>
       <c r="BH490" s="3"/>
     </row>
-    <row r="491" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C491" s="3"/>
       <c r="D491" s="3"/>
       <c r="E491" s="3"/>
@@ -30367,7 +30370,7 @@
       <c r="BG491" s="3"/>
       <c r="BH491" s="3"/>
     </row>
-    <row r="492" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C492" s="3"/>
       <c r="D492" s="3"/>
       <c r="E492" s="3"/>
@@ -30427,7 +30430,7 @@
       <c r="BG492" s="3"/>
       <c r="BH492" s="3"/>
     </row>
-    <row r="493" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C493" s="3"/>
       <c r="D493" s="3"/>
       <c r="E493" s="3"/>
@@ -30487,7 +30490,7 @@
       <c r="BG493" s="3"/>
       <c r="BH493" s="3"/>
     </row>
-    <row r="494" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C494" s="3"/>
       <c r="D494" s="3"/>
       <c r="E494" s="3"/>
@@ -30547,7 +30550,7 @@
       <c r="BG494" s="3"/>
       <c r="BH494" s="3"/>
     </row>
-    <row r="495" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C495" s="3"/>
       <c r="D495" s="3"/>
       <c r="E495" s="3"/>
@@ -30607,7 +30610,7 @@
       <c r="BG495" s="3"/>
       <c r="BH495" s="3"/>
     </row>
-    <row r="496" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C496" s="3"/>
       <c r="D496" s="3"/>
       <c r="E496" s="3"/>
@@ -30667,7 +30670,7 @@
       <c r="BG496" s="3"/>
       <c r="BH496" s="3"/>
     </row>
-    <row r="497" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C497" s="3"/>
       <c r="D497" s="3"/>
       <c r="E497" s="3"/>
@@ -30727,7 +30730,7 @@
       <c r="BG497" s="3"/>
       <c r="BH497" s="3"/>
     </row>
-    <row r="498" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C498" s="3"/>
       <c r="D498" s="3"/>
       <c r="E498" s="3"/>
@@ -30787,7 +30790,7 @@
       <c r="BG498" s="3"/>
       <c r="BH498" s="3"/>
     </row>
-    <row r="499" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C499" s="3"/>
       <c r="D499" s="3"/>
       <c r="E499" s="3"/>
@@ -30847,7 +30850,7 @@
       <c r="BG499" s="3"/>
       <c r="BH499" s="3"/>
     </row>
-    <row r="500" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C500" s="3"/>
       <c r="D500" s="3"/>
       <c r="E500" s="3"/>
@@ -30907,7 +30910,7 @@
       <c r="BG500" s="3"/>
       <c r="BH500" s="3"/>
     </row>
-    <row r="501" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C501" s="3"/>
       <c r="D501" s="3"/>
       <c r="E501" s="3"/>
@@ -30967,7 +30970,7 @@
       <c r="BG501" s="3"/>
       <c r="BH501" s="3"/>
     </row>
-    <row r="502" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C502" s="3"/>
       <c r="D502" s="3"/>
       <c r="E502" s="3"/>
@@ -31027,7 +31030,7 @@
       <c r="BG502" s="3"/>
       <c r="BH502" s="3"/>
     </row>
-    <row r="503" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C503" s="3"/>
       <c r="D503" s="3"/>
       <c r="E503" s="3"/>
@@ -31087,7 +31090,7 @@
       <c r="BG503" s="3"/>
       <c r="BH503" s="3"/>
     </row>
-    <row r="504" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C504" s="3"/>
       <c r="D504" s="3"/>
       <c r="E504" s="3"/>
@@ -31147,7 +31150,7 @@
       <c r="BG504" s="3"/>
       <c r="BH504" s="3"/>
     </row>
-    <row r="505" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C505" s="3"/>
       <c r="D505" s="3"/>
       <c r="E505" s="3"/>
@@ -31207,7 +31210,7 @@
       <c r="BG505" s="3"/>
       <c r="BH505" s="3"/>
     </row>
-    <row r="506" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C506" s="3"/>
       <c r="D506" s="3"/>
       <c r="E506" s="3"/>
@@ -31267,7 +31270,7 @@
       <c r="BG506" s="3"/>
       <c r="BH506" s="3"/>
     </row>
-    <row r="507" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C507" s="3"/>
       <c r="D507" s="3"/>
       <c r="E507" s="3"/>
@@ -31327,7 +31330,7 @@
       <c r="BG507" s="3"/>
       <c r="BH507" s="3"/>
     </row>
-    <row r="508" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C508" s="3"/>
       <c r="D508" s="3"/>
       <c r="E508" s="3"/>
@@ -31387,7 +31390,7 @@
       <c r="BG508" s="3"/>
       <c r="BH508" s="3"/>
     </row>
-    <row r="509" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C509" s="3"/>
       <c r="D509" s="3"/>
       <c r="E509" s="3"/>
@@ -31447,7 +31450,7 @@
       <c r="BG509" s="3"/>
       <c r="BH509" s="3"/>
     </row>
-    <row r="510" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C510" s="3"/>
       <c r="D510" s="3"/>
       <c r="E510" s="3"/>
@@ -31507,7 +31510,7 @@
       <c r="BG510" s="3"/>
       <c r="BH510" s="3"/>
     </row>
-    <row r="511" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C511" s="3"/>
       <c r="D511" s="3"/>
       <c r="E511" s="3"/>
@@ -31567,7 +31570,7 @@
       <c r="BG511" s="3"/>
       <c r="BH511" s="3"/>
     </row>
-    <row r="512" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C512" s="3"/>
       <c r="D512" s="3"/>
       <c r="E512" s="3"/>
@@ -31627,7 +31630,7 @@
       <c r="BG512" s="3"/>
       <c r="BH512" s="3"/>
     </row>
-    <row r="513" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C513" s="3"/>
       <c r="D513" s="3"/>
       <c r="E513" s="3"/>
@@ -31687,7 +31690,7 @@
       <c r="BG513" s="3"/>
       <c r="BH513" s="3"/>
     </row>
-    <row r="514" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C514" s="3"/>
       <c r="D514" s="3"/>
       <c r="E514" s="3"/>
@@ -31747,7 +31750,7 @@
       <c r="BG514" s="3"/>
       <c r="BH514" s="3"/>
     </row>
-    <row r="515" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C515" s="3"/>
       <c r="D515" s="3"/>
       <c r="E515" s="3"/>
@@ -31807,7 +31810,7 @@
       <c r="BG515" s="3"/>
       <c r="BH515" s="3"/>
     </row>
-    <row r="516" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C516" s="3"/>
       <c r="D516" s="3"/>
       <c r="E516" s="3"/>
@@ -31867,7 +31870,7 @@
       <c r="BG516" s="3"/>
       <c r="BH516" s="3"/>
     </row>
-    <row r="517" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C517" s="3"/>
       <c r="D517" s="3"/>
       <c r="E517" s="3"/>
@@ -31927,7 +31930,7 @@
       <c r="BG517" s="3"/>
       <c r="BH517" s="3"/>
     </row>
-    <row r="518" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C518" s="3"/>
       <c r="D518" s="3"/>
       <c r="E518" s="3"/>
@@ -31987,7 +31990,7 @@
       <c r="BG518" s="3"/>
       <c r="BH518" s="3"/>
     </row>
-    <row r="519" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C519" s="3"/>
       <c r="D519" s="3"/>
       <c r="E519" s="3"/>
@@ -32047,7 +32050,7 @@
       <c r="BG519" s="3"/>
       <c r="BH519" s="3"/>
     </row>
-    <row r="520" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C520" s="3"/>
       <c r="D520" s="3"/>
       <c r="E520" s="3"/>
@@ -32107,7 +32110,7 @@
       <c r="BG520" s="3"/>
       <c r="BH520" s="3"/>
     </row>
-    <row r="521" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C521" s="3"/>
       <c r="D521" s="3"/>
       <c r="E521" s="3"/>
@@ -32167,7 +32170,7 @@
       <c r="BG521" s="3"/>
       <c r="BH521" s="3"/>
     </row>
-    <row r="522" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C522" s="3"/>
       <c r="D522" s="3"/>
       <c r="E522" s="3"/>
@@ -32227,7 +32230,7 @@
       <c r="BG522" s="3"/>
       <c r="BH522" s="3"/>
     </row>
-    <row r="523" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C523" s="3"/>
       <c r="D523" s="3"/>
       <c r="E523" s="3"/>
@@ -32287,7 +32290,7 @@
       <c r="BG523" s="3"/>
       <c r="BH523" s="3"/>
     </row>
-    <row r="524" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C524" s="3"/>
       <c r="D524" s="3"/>
       <c r="E524" s="3"/>
@@ -32347,7 +32350,7 @@
       <c r="BG524" s="3"/>
       <c r="BH524" s="3"/>
     </row>
-    <row r="525" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C525" s="3"/>
       <c r="D525" s="3"/>
       <c r="E525" s="3"/>
@@ -32407,7 +32410,7 @@
       <c r="BG525" s="3"/>
       <c r="BH525" s="3"/>
     </row>
-    <row r="526" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C526" s="3"/>
       <c r="D526" s="3"/>
       <c r="E526" s="3"/>
@@ -32467,7 +32470,7 @@
       <c r="BG526" s="3"/>
       <c r="BH526" s="3"/>
     </row>
-    <row r="527" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C527" s="3"/>
       <c r="D527" s="3"/>
       <c r="E527" s="3"/>
@@ -32527,7 +32530,7 @@
       <c r="BG527" s="3"/>
       <c r="BH527" s="3"/>
     </row>
-    <row r="528" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C528" s="3"/>
       <c r="D528" s="3"/>
       <c r="E528" s="3"/>
@@ -32587,7 +32590,7 @@
       <c r="BG528" s="3"/>
       <c r="BH528" s="3"/>
     </row>
-    <row r="529" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C529" s="3"/>
       <c r="D529" s="3"/>
       <c r="E529" s="3"/>
@@ -32647,7 +32650,7 @@
       <c r="BG529" s="3"/>
       <c r="BH529" s="3"/>
     </row>
-    <row r="530" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C530" s="3"/>
       <c r="D530" s="3"/>
       <c r="E530" s="3"/>
@@ -32707,7 +32710,7 @@
       <c r="BG530" s="3"/>
       <c r="BH530" s="3"/>
     </row>
-    <row r="531" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C531" s="3"/>
       <c r="D531" s="3"/>
       <c r="E531" s="3"/>
@@ -32767,7 +32770,7 @@
       <c r="BG531" s="3"/>
       <c r="BH531" s="3"/>
     </row>
-    <row r="532" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C532" s="3"/>
       <c r="D532" s="3"/>
       <c r="E532" s="3"/>
@@ -32827,7 +32830,7 @@
       <c r="BG532" s="3"/>
       <c r="BH532" s="3"/>
     </row>
-    <row r="533" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C533" s="3"/>
       <c r="D533" s="3"/>
       <c r="E533" s="3"/>
@@ -32887,7 +32890,7 @@
       <c r="BG533" s="3"/>
       <c r="BH533" s="3"/>
     </row>
-    <row r="534" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C534" s="3"/>
       <c r="D534" s="3"/>
       <c r="E534" s="3"/>
@@ -32947,7 +32950,7 @@
       <c r="BG534" s="3"/>
       <c r="BH534" s="3"/>
     </row>
-    <row r="535" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C535" s="3"/>
       <c r="D535" s="3"/>
       <c r="E535" s="3"/>
@@ -33007,7 +33010,7 @@
       <c r="BG535" s="3"/>
       <c r="BH535" s="3"/>
     </row>
-    <row r="536" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C536" s="3"/>
       <c r="D536" s="3"/>
       <c r="E536" s="3"/>
@@ -33067,7 +33070,7 @@
       <c r="BG536" s="3"/>
       <c r="BH536" s="3"/>
     </row>
-    <row r="537" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C537" s="3"/>
       <c r="D537" s="3"/>
       <c r="E537" s="3"/>
@@ -33127,7 +33130,7 @@
       <c r="BG537" s="3"/>
       <c r="BH537" s="3"/>
     </row>
-    <row r="538" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C538" s="3"/>
       <c r="D538" s="3"/>
       <c r="E538" s="3"/>
@@ -33187,7 +33190,7 @@
       <c r="BG538" s="3"/>
       <c r="BH538" s="3"/>
     </row>
-    <row r="539" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C539" s="3"/>
       <c r="D539" s="3"/>
       <c r="E539" s="3"/>
@@ -33247,7 +33250,7 @@
       <c r="BG539" s="3"/>
       <c r="BH539" s="3"/>
     </row>
-    <row r="540" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C540" s="3"/>
       <c r="D540" s="3"/>
       <c r="E540" s="3"/>
@@ -33307,7 +33310,7 @@
       <c r="BG540" s="3"/>
       <c r="BH540" s="3"/>
     </row>
-    <row r="541" spans="3:60" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:60" x14ac:dyDescent="0.2">
       <c r="C541" s="3"/>
       <c r="D541" s="3"/>
       <c r="E541" s="3"/>
